--- a/service/zconfig/static/test.xlsx
+++ b/service/zconfig/static/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dylan/Documents/github/ulidev9527/zservice/service/zconfig/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997171C-92E4-544B-9D01-3322ACAFD5EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DC0727-5B6D-E74E-81F3-3096DCD9CB57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="700" windowWidth="38000" windowHeight="23100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -136,6 +136,10 @@
   </si>
   <si>
     <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none111</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,6 +158,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -514,7 +519,7 @@
   <dimension ref="A1:K170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -673,6 +678,9 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="G6">
         <v>1</v>
